--- a/Testing-Forms/automation_code/data.xlsx
+++ b/Testing-Forms/automation_code/data.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91911\Desktop\Testing-Forms\automation_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91911\Desktop\cs-731_final_project\Testing-Forms\automation_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC9B28-0AF8-44A8-951C-FB61DA4B8C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580EDC87-3EED-4FE7-AD94-F2702E391BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
@@ -39,7 +34,10 @@
     <t>cnf_password</t>
   </si>
   <si>
-    <t>bib@gmail.com</t>
+    <t>req_status</t>
+  </si>
+  <si>
+    <t>Test_description</t>
   </si>
   <si>
     <t>bibhu</t>
@@ -48,17 +46,59 @@
     <t>sanu</t>
   </si>
   <si>
-    <t>srij@gmail.com</t>
-  </si>
-  <si>
-    <t>sirj</t>
+    <t>Empty email field</t>
+  </si>
+  <si>
+    <t>sri@gmail.com</t>
+  </si>
+  <si>
+    <t>asada</t>
+  </si>
+  <si>
+    <t>asaa</t>
+  </si>
+  <si>
+    <t>asad</t>
+  </si>
+  <si>
+    <t>password not match</t>
+  </si>
+  <si>
+    <t>nvb</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>not correct email format</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>srijanpra@gmail.com</t>
+  </si>
+  <si>
+    <t>empty name field</t>
+  </si>
+  <si>
+    <t>srijansanu</t>
+  </si>
+  <si>
+    <t>srijan</t>
+  </si>
+  <si>
+    <t>correct input</t>
+  </si>
+  <si>
+    <t>prakas@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,10 +109,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -91,7 +143,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -102,21 +161,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,20 +238,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -206,12 +281,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,162 +325,189 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,41 +520,113 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{736E9EE8-4C6C-490B-B410-25B82357C464}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{79A086BD-986F-4CFE-AC13-DF4190577E0E}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{42C7F410-EFDC-4E45-9B2C-EE2BAE8B96D0}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{D05B5E54-7F15-4E1C-865D-61BEC4FC5B3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>